--- a/Соловьев Михаил.xlsx
+++ b/Соловьев Михаил.xlsx
@@ -55,10 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,14 +441,14 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Отчет Январь 2022г.</t>
+          <t>Отчет Декабрь 2021г.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Соловьев Михаил.</t>
+          <t>Михаил Соловьев.</t>
         </is>
       </c>
     </row>
@@ -465,72 +466,418 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны SS760300053 и 54_, 386-5 КК</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец печати задников, 429 КК</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, образец, полка, 215СФ СРОЧНО!!!!</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образец BB7000111, 301-3 КК</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Бос Тим (Амвэй), Образцы,Ценникодержатели, 48МК</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образец BB7000111, 301-2 КК</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец-эталон SS760300053_, 386-4 КК</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Ревлон, Образец, Подставка универсальная, 37МК</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Триумф, Образец, Подставка, 20МК-1</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>Диваж, Образцы, Образцы пластика и печати, ТЗ 223СФ</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>Ладен,Образец, Карманы из ОС, 24МК-1</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>Кики, Образец, Стойки, 35МК-1</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Образцы, Эталоны, Дисплеи, 443КК</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев, 372-5 КК</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образец SS760300054_, 386-3 КК</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>18 ШС-1 подготовка файлов для раскроя</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Р.М, Тендер на производство образца торца GREEN EDITION, ТЗ 186СФ-2</t>
+        </is>
+      </c>
+      <c r="B21" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>Дека, Образец, Ремонт549КК торец ЛЭТ(ВС), №ТЗ 6 ША</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, комплект Stellary, образец, №19 ЮЛ</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, образцы-эталоны дисплеев и поддонов ВС для сети РИВ ГОШ, 412-6 КК</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Ладен,Образец, Карманы из ОС, 24МК-2</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>19 ШС разработка КД для гибки самостоятельно</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>DEKA, Образец, POPAI 2022, 34 Стойка, 39 АН</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="inlineStr">
+        <is>
+          <t>DEKA, образец к POPAI 2022, 20 бытовая техника, 39 АН</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="3" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Сумма</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="B29" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="3" t="n"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Задания</t>
         </is>
       </c>
     </row>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52"/>
-    <row r="53"/>
+    <row r="33">
+      <c r="A33" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль сигнал навигации 719СФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>Нинель Сигнал дисплея к бланку 708</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Сигнал к бланку 719СФ Лореаль навигация</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, РМ, Serum GRN Дисплей + полка паразит, ТЗ 228СФ-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>ИнтерКосметикСервис, РМ, Дисплей, № 172 ЧЯ</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, РМ SS760300053, SS760300054_, 386-3 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="inlineStr">
+        <is>
+          <t>Феникс+, РМ, стойка, № 145 ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="inlineStr">
+        <is>
+          <t>Феникс+, РМ, стойка,№ 141-2 ЮО</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="inlineStr">
+        <is>
+          <t>Софис,  Р.М, Стойка, 47МК</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>Ревлон, Р.М, Подставка универсальная, 37МК -1</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="3" t="inlineStr">
+        <is>
+          <t>ЭрихКраузе, РМ подвесной конструкции, 437 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="3" t="inlineStr">
+        <is>
+          <t>Elemax, РМ, №ТЗ 164</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="3" t="inlineStr">
+        <is>
+          <t>АМВЭЙ, РМ ценники, 431 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>Лореаль, Р.М, полка, 215СФ-1 СРОЧНО!!!!</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
+        <is>
+          <t>Диваж, Выложить в МП две баркеты, ТЗ 236СФ</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="3" t="inlineStr">
+        <is>
+          <t>ЭрихКраузе, РМ страйпленты для Ленты, 433 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="3" t="inlineStr">
+        <is>
+          <t>Градиент, Череж, Шкаф D215920068, 441КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Триумф, замена в М.П., Подставки, 22МК-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Градиент, эскиз шкафа VG02000515, 305- 3 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Градиент, ГЛОБАЛ разработка дисплеи Таджикистан эскизы дисплеев, 427 КК</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Триумф, Чертеж, Подставка под помады, 23МК</t>
+        </is>
+      </c>
+    </row>
     <row r="54"/>
     <row r="55"/>
     <row r="56"/>
